--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.3322761269421042</v>
+        <v>4.3322761316163083</v>
       </c>
       <c r="C2">
-        <v>12.506513672874952</v>
+        <v>12.506513643140918</v>
       </c>
       <c r="D2">
-        <v>25.358430577543285</v>
+        <v>25.358430595850102</v>
       </c>
       <c r="E2">
-        <v>33.031311798121166</v>
+        <v>33.031311811432182</v>
       </c>
       <c r="F2">
-        <v>14.218321715684739</v>
+        <v>14.21832171768837</v>
       </c>
       <c r="G2">
-        <v>3.1869884015065955</v>
+        <v>3.18698836264742</v>
       </c>
       <c r="H2">
-        <v>12.579414199583717</v>
+        <v>12.579414112178203</v>
       </c>
       <c r="I2">
-        <v>15.360830184885735</v>
+        <v>15.360830181397761</v>
       </c>
       <c r="J2">
-        <v>24.272316434190586</v>
+        <v>24.272316428216829</v>
       </c>
       <c r="K2">
-        <v>8.3616121323736436</v>
+        <v>8.3616121130934769</v>
       </c>
       <c r="L2">
-        <v>7.9982197886837438</v>
+        <v>7.998219868507185</v>
       </c>
       <c r="M2">
-        <v>-9.5255556194895181</v>
+        <v>-9.525555661290964</v>
       </c>
       <c r="N2">
-        <v>18.483244575844225</v>
+        <v>18.483244530899238</v>
       </c>
       <c r="O2">
-        <v>20.414234830865446</v>
+        <v>20.41423487247226</v>
       </c>
       <c r="P2">
-        <v>21.975100121048996</v>
+        <v>21.975100053767047</v>
       </c>
       <c r="Q2">
-        <v>0.70662640583407232</v>
+        <v>0.7066263929391231</v>
       </c>
       <c r="R2">
-        <v>-7.3733077713065827</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="S2">
-        <v>28.009976870966334</v>
+        <v>28.009976637123145</v>
       </c>
       <c r="T2">
-        <v>31.656034065762885</v>
+        <v>31.656034074454748</v>
       </c>
       <c r="U2">
-        <v>-0.3575293145562487</v>
+        <v>-0.35752934158969552</v>
       </c>
       <c r="V2">
-        <v>13.290127095782909</v>
+        <v>13.290127018971292</v>
       </c>
       <c r="W2">
-        <v>-6.2363469751044374</v>
+        <v>-6.2363471167561517</v>
       </c>
       <c r="X2">
-        <v>2.7276592751993278</v>
+        <v>2.7276592797354056</v>
       </c>
       <c r="Y2">
-        <v>30.017154877341568</v>
+        <v>30.017154846432899</v>
       </c>
       <c r="Z2">
-        <v>15.811551230661369</v>
+        <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>38.554723711644478</v>
+        <v>38.554723826535806</v>
       </c>
       <c r="AB2">
-        <v>27.783219787173984</v>
+        <v>27.783219712783126</v>
       </c>
       <c r="AC2">
-        <v>5.0377521772654381</v>
+        <v>5.0377521324258083</v>
       </c>
       <c r="AD2">
-        <v>39.697379232004224</v>
+        <v>39.69737918283208</v>
       </c>
       <c r="AE2">
-        <v>14.25957649912062</v>
+        <v>14.259576509421315</v>
       </c>
       <c r="AF2">
-        <v>19.523362056808065</v>
+        <v>19.523361981574368</v>
       </c>
       <c r="AG2">
-        <v>27.621288845919551</v>
+        <v>27.621288747170748</v>
       </c>
       <c r="AH2">
-        <v>24.633050096676264</v>
+        <v>24.633050060247552</v>
       </c>
       <c r="AI2">
-        <v>33.652477702420242</v>
+        <v>33.6524774940874</v>
       </c>
       <c r="AJ2">
-        <v>22.897185374796262</v>
+        <v>22.897185287213869</v>
       </c>
       <c r="AK2">
-        <v>28.282346372958749</v>
+        <v>28.282346308383708</v>
       </c>
       <c r="AL2">
-        <v>-2.5923106502210884</v>
+        <v>-2.5923107055575727</v>
       </c>
       <c r="AM2">
-        <v>26.021814536737214</v>
+        <v>26.021814370035074</v>
       </c>
       <c r="AN2">
-        <v>27.39320955412305</v>
+        <v>27.393209473391376</v>
       </c>
       <c r="AO2">
-        <v>40.900117234764956</v>
+        <v>40.900117485257795</v>
       </c>
       <c r="AP2">
-        <v>25.306503057918828</v>
+        <v>25.306503012561173</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402512730504121</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="AR2">
-        <v>31.094080867122564</v>
+        <v>31.09408085447572</v>
       </c>
       <c r="AS2">
-        <v>44.84715257942613</v>
+        <v>44.847152428811526</v>
       </c>
       <c r="AT2">
-        <v>12.892584923307734</v>
+        <v>12.892585056526308</v>
       </c>
       <c r="AU2">
-        <v>24.70090201346818</v>
+        <v>24.700901898011896</v>
       </c>
       <c r="AV2">
-        <v>26.323446126957066</v>
+        <v>26.323446215357915</v>
       </c>
       <c r="AW2">
-        <v>10.73968714517587</v>
+        <v>10.739686994984741</v>
       </c>
       <c r="AX2">
-        <v>32.595752782566244</v>
+        <v>32.595752672863675</v>
       </c>
       <c r="AY2">
-        <v>38.341991878003299</v>
+        <v>38.341991790639781</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>13.307714624248202</v>
       </c>
       <c r="C3">
-        <v>12.988019640289561</v>
+        <v>12.98801960682068</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>27.879233967006485</v>
       </c>
       <c r="E3">
-        <v>26.048233050354497</v>
+        <v>26.048233014108291</v>
       </c>
       <c r="F3">
-        <v>13.469861712229299</v>
+        <v>13.469861654730108</v>
       </c>
       <c r="G3">
-        <v>22.820270681563436</v>
+        <v>22.820270646871922</v>
       </c>
       <c r="H3">
-        <v>-4.8444689331867883</v>
+        <v>-4.8444689119820286</v>
       </c>
       <c r="I3">
-        <v>5.3611660229769589</v>
+        <v>5.3611659982215301</v>
       </c>
       <c r="J3">
-        <v>26.834442373471955</v>
+        <v>26.834442279424859</v>
       </c>
       <c r="K3">
-        <v>49.209472387820867</v>
+        <v>49.20947237291508</v>
       </c>
       <c r="L3">
-        <v>29.977365967731849</v>
+        <v>29.9773659049361</v>
       </c>
       <c r="M3">
-        <v>-0.23175817057125131</v>
+        <v>-0.23255325893957116</v>
       </c>
       <c r="N3">
-        <v>14.471734453334484</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="O3">
-        <v>-21.58560644789107</v>
+        <v>-21.58560644127704</v>
       </c>
       <c r="P3">
-        <v>24.320246605864064</v>
+        <v>24.320246507597325</v>
       </c>
       <c r="Q3">
-        <v>10.508873560329112</v>
+        <v>10.508873493099712</v>
       </c>
       <c r="R3">
-        <v>6.872697997055659</v>
+        <v>6.8726977810813397</v>
       </c>
       <c r="S3">
-        <v>25.327754823693443</v>
+        <v>25.32775477686662</v>
       </c>
       <c r="T3">
-        <v>32.317783089004799</v>
+        <v>32.317783039668555</v>
       </c>
       <c r="U3">
-        <v>12.809551700379149</v>
+        <v>12.809551653454964</v>
       </c>
       <c r="V3">
-        <v>17.818562263570676</v>
+        <v>17.818562285514648</v>
       </c>
       <c r="W3">
-        <v>2.7291693737827045</v>
+        <v>2.7291692825282601</v>
       </c>
       <c r="X3">
-        <v>-4.9732367760333558</v>
+        <v>-4.9732368020940303</v>
       </c>
       <c r="Y3">
-        <v>34.302238201315049</v>
+        <v>34.302238124530952</v>
       </c>
       <c r="Z3">
-        <v>18.248289670901755</v>
+        <v>18.248289637957406</v>
       </c>
       <c r="AA3">
-        <v>34.776823533635593</v>
+        <v>34.776823592264101</v>
       </c>
       <c r="AB3">
-        <v>29.818664408503736</v>
+        <v>29.818664332171572</v>
       </c>
       <c r="AC3">
-        <v>40.220515640392136</v>
+        <v>40.220515429546651</v>
       </c>
       <c r="AD3">
-        <v>40.310940107851344</v>
+        <v>40.310939876444174</v>
       </c>
       <c r="AE3">
-        <v>31.383196444240696</v>
+        <v>31.383196223527332</v>
       </c>
       <c r="AF3">
-        <v>22.640262199570611</v>
+        <v>22.640262087476518</v>
       </c>
       <c r="AG3">
-        <v>17.636615274068859</v>
+        <v>17.636615184797623</v>
       </c>
       <c r="AH3">
-        <v>9.5678701652811124</v>
+        <v>9.5678701073997416</v>
       </c>
       <c r="AI3">
-        <v>69.009650899200096</v>
+        <v>69.009651046789728</v>
       </c>
       <c r="AJ3">
-        <v>49.342442329708796</v>
+        <v>49.342442178073462</v>
       </c>
       <c r="AK3">
-        <v>28.457235553278409</v>
+        <v>28.457235256273982</v>
       </c>
       <c r="AL3">
-        <v>17.611569222313378</v>
+        <v>17.611569127307611</v>
       </c>
       <c r="AM3">
-        <v>25.673148946180781</v>
+        <v>25.673148807290115</v>
       </c>
       <c r="AN3">
-        <v>-8.215082298385104</v>
+        <v>-8.215082338294085</v>
       </c>
       <c r="AO3">
-        <v>41.937048814294521</v>
+        <v>41.937048493350417</v>
       </c>
       <c r="AP3">
-        <v>7.4195272212960903</v>
+        <v>7.4195271562628466</v>
       </c>
       <c r="AQ3">
-        <v>23.06912531144663</v>
+        <v>23.06912522692706</v>
       </c>
       <c r="AR3">
-        <v>42.201531084766003</v>
+        <v>42.20153123478218</v>
       </c>
       <c r="AS3">
-        <v>34.30179375796498</v>
+        <v>34.301793816628148</v>
       </c>
       <c r="AT3">
-        <v>21.785268849754225</v>
+        <v>21.785268725950058</v>
       </c>
       <c r="AU3">
-        <v>17.890791124653834</v>
+        <v>17.890790948109423</v>
       </c>
       <c r="AV3">
-        <v>17.478615008932579</v>
+        <v>17.478614827674658</v>
       </c>
       <c r="AW3">
-        <v>12.597818226910901</v>
+        <v>12.597816698778578</v>
       </c>
       <c r="AX3">
-        <v>21.815187273516997</v>
+        <v>21.815186930326444</v>
       </c>
       <c r="AY3">
-        <v>42.551994663568934</v>
+        <v>42.551994581200226</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.3322761316163083</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.506513643140918</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25.358430595850102</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.031311811432182</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.21832171768837</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.18698836264742</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>12.579414112178203</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.360830181397761</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.272316428216829</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.3616121130934769</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.998219868507185</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.525555661290964</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>18.483244530899238</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.41423487247226</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.975100053767047</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7066263929391231</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-7.3733077377562868</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>28.009976637123145</v>
+        <v>16.484187188528963</v>
       </c>
       <c r="T2">
         <v>31.656034074454748</v>
@@ -588,55 +477,55 @@
         <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>38.554723826535806</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>27.783219712783126</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.0377521324258083</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>39.69737918283208</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>14.259576509421315</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.523361981574368</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>27.621288747170748</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>24.633050060247552</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>33.6524774940874</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>22.897185287213869</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>28.282346308383708</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-2.5923107055575727</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>26.021814370035074</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>27.393209473391376</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>40.900117485257795</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>25.306503012561173</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402514088270851</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>31.09408085447572</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.307714624248202</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12.98801960682068</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>27.879233967006485</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26.048233014108291</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13.469861654730108</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>22.820270646871922</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-4.8444689119820286</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.3611659982215301</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>26.834442279424859</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>49.20947237291508</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.9773659049361</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.23255325893957116</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.471734435433772</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-21.58560644127704</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>24.320246507597325</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.508873493099712</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.8726977810813397</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>25.32775477686662</v>
@@ -743,55 +629,55 @@
         <v>18.248289637957406</v>
       </c>
       <c r="AA3">
-        <v>34.776823592264101</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>29.818664332171572</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>40.220515429546651</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>40.310939876444174</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>31.383196223527332</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>22.640262087476518</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>17.636615184797623</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.5678701073997416</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>69.009651046789728</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>49.342442178073462</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>28.457235256273982</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>17.611569127307611</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>25.673148807290115</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-8.215082338294085</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>41.937048493350417</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.4195271562628466</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.06912522692706</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>42.20153123478218</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.3322761269421042</v>
-      </c>
       <c r="C2">
-        <v>9.1063291787378784</v>
-      </c>
-      <c r="D2">
-        <v>25.358430577543285</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="E2">
-        <v>33.031311798121166</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="F2">
         <v>14.218321715684739</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>-10.616310651571711</v>
       </c>
       <c r="C3">
-        <v>12.988019640289561</v>
+        <v>6.8726977810813397</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>-5.1521007428528565</v>
       </c>
       <c r="E3">
-        <v>26.048233050354497</v>
+        <v>22.659194513281399</v>
       </c>
       <c r="F3">
         <v>13.469861712229299</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.3322761269421042</v>
-      </c>
-      <c r="C2">
-        <v>9.1063291787378784</v>
+        <v>17.375431314037488</v>
       </c>
       <c r="D2">
-        <v>25.358430577543285</v>
-      </c>
-      <c r="E2">
-        <v>33.031311798121166</v>
+        <v>26.021814370035074</v>
       </c>
       <c r="F2">
         <v>14.218321715684739</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="C3">
-        <v>12.988019640289561</v>
+        <v>-10.616310651571711</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>25.673148807290115</v>
       </c>
       <c r="E3">
-        <v>35.902551396270468</v>
+        <v>-5.1521007428528565</v>
       </c>
       <c r="F3">
         <v>13.469861712229299</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.3322761316163083</v>
+      </c>
+      <c r="C2">
+        <v>9.1063290577089671</v>
+      </c>
+      <c r="D2">
+        <v>25.358430595850102</v>
+      </c>
+      <c r="E2">
+        <v>33.031311811432182</v>
+      </c>
+      <c r="F2">
+        <v>14.21832171768837</v>
+      </c>
+      <c r="G2">
+        <v>9.8824769887951849</v>
+      </c>
+      <c r="H2">
+        <v>12.579414112178203</v>
+      </c>
+      <c r="I2">
+        <v>23.010732543809095</v>
+      </c>
+      <c r="J2">
+        <v>24.272316428216829</v>
+      </c>
+      <c r="K2">
+        <v>8.3616121130934769</v>
+      </c>
+      <c r="L2">
+        <v>13.453977655872606</v>
+      </c>
+      <c r="M2">
+        <v>-4.6724894168778508E-2</v>
+      </c>
+      <c r="N2">
         <v>17.375431314037488</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>24.698759600761388</v>
+      </c>
+      <c r="Q2">
+        <v>0.7066263929391231</v>
+      </c>
+      <c r="R2">
+        <v>-7.3733077377562868</v>
+      </c>
+      <c r="T2">
+        <v>25.825270907765258</v>
+      </c>
+      <c r="U2">
+        <v>-0.35752934158969552</v>
+      </c>
+      <c r="V2">
+        <v>19.921161843057316</v>
+      </c>
+      <c r="W2">
+        <v>-6.2363471167561517</v>
+      </c>
+      <c r="X2">
+        <v>2.7276592797354056</v>
+      </c>
+      <c r="Y2">
+        <v>30.017154846432899</v>
+      </c>
+      <c r="Z2">
+        <v>15.811551191669501</v>
+      </c>
+      <c r="AA2">
+        <v>38.554723826535806</v>
+      </c>
+      <c r="AB2">
+        <v>27.783219712783126</v>
+      </c>
+      <c r="AC2">
+        <v>5.0377521324258083</v>
+      </c>
+      <c r="AD2">
+        <v>39.69737918283208</v>
+      </c>
+      <c r="AE2">
+        <v>14.259576509421315</v>
+      </c>
+      <c r="AF2">
+        <v>19.523361981574368</v>
+      </c>
+      <c r="AG2">
+        <v>27.621288747170748</v>
+      </c>
+      <c r="AH2">
+        <v>24.633050060247552</v>
+      </c>
+      <c r="AI2">
+        <v>33.6524774940874</v>
+      </c>
+      <c r="AJ2">
+        <v>22.897185287213869</v>
+      </c>
+      <c r="AK2">
+        <v>28.282346308383708</v>
+      </c>
+      <c r="AL2">
+        <v>-2.5923107055575727</v>
+      </c>
+      <c r="AM2">
         <v>26.021814370035074</v>
       </c>
-      <c r="F2">
-        <v>14.218321715684739</v>
-      </c>
-      <c r="G2">
-        <v>9.8824770946456439</v>
-      </c>
-      <c r="H2">
-        <v>12.579414199583717</v>
-      </c>
-      <c r="I2">
-        <v>23.010732523794495</v>
-      </c>
-      <c r="J2">
-        <v>24.272316434190586</v>
-      </c>
-      <c r="K2">
-        <v>8.3616121323736436</v>
-      </c>
-      <c r="L2">
-        <v>13.453977998305145</v>
-      </c>
-      <c r="M2">
-        <v>-4.6724882117262383E-2</v>
-      </c>
-      <c r="N2">
-        <v>17.375431374689668</v>
-      </c>
-      <c r="P2">
-        <v>24.698759696642199</v>
-      </c>
-      <c r="Q2">
-        <v>0.70662640583407232</v>
-      </c>
-      <c r="R2">
-        <v>-7.3733077713065827</v>
-      </c>
-      <c r="T2">
-        <v>25.825270900330281</v>
-      </c>
-      <c r="U2">
-        <v>-0.3575293145562487</v>
-      </c>
-      <c r="V2">
-        <v>19.921161976150973</v>
-      </c>
-      <c r="W2">
-        <v>-6.2363469751044374</v>
-      </c>
-      <c r="X2">
-        <v>2.7276592751993278</v>
-      </c>
-      <c r="Y2">
-        <v>30.017154877341568</v>
-      </c>
-      <c r="Z2">
-        <v>15.811551230661369</v>
-      </c>
-      <c r="AA2">
-        <v>38.554723711644478</v>
-      </c>
-      <c r="AB2">
-        <v>27.783219787173984</v>
-      </c>
-      <c r="AC2">
-        <v>5.0377521772654381</v>
-      </c>
-      <c r="AD2">
-        <v>39.697379232004224</v>
-      </c>
-      <c r="AE2">
-        <v>14.25957649912062</v>
-      </c>
-      <c r="AF2">
-        <v>19.523362056808065</v>
-      </c>
-      <c r="AG2">
-        <v>27.621288845919551</v>
-      </c>
-      <c r="AH2">
-        <v>24.633050096676264</v>
-      </c>
-      <c r="AI2">
-        <v>33.652477702420242</v>
-      </c>
-      <c r="AJ2">
-        <v>22.897185374796262</v>
-      </c>
-      <c r="AK2">
-        <v>28.282346372958749</v>
-      </c>
-      <c r="AL2">
-        <v>-2.5923106502210884</v>
-      </c>
-      <c r="AM2">
-        <v>26.021814536737214</v>
-      </c>
       <c r="AO2">
-        <v>40.900117234764956</v>
+        <v>40.900117485257795</v>
       </c>
       <c r="AP2">
-        <v>29.122602016396421</v>
+        <v>29.122601960108664</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402512730504121</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="AR2">
-        <v>31.094080867122564</v>
+        <v>31.09408085447572</v>
       </c>
       <c r="AS2">
-        <v>44.84715257942613</v>
+        <v>44.847152428811526</v>
       </c>
       <c r="AT2">
-        <v>12.892584923307734</v>
+        <v>12.892585056526308</v>
       </c>
       <c r="AU2">
-        <v>12.571698107474838</v>
+        <v>12.571698133853889</v>
       </c>
       <c r="AV2">
-        <v>26.323446126957066</v>
+        <v>26.323446215357915</v>
       </c>
       <c r="AW2">
-        <v>10.73968714517587</v>
+        <v>10.739686994984741</v>
       </c>
       <c r="AX2">
-        <v>32.595752782566244</v>
+        <v>32.595752672863675</v>
       </c>
       <c r="AY2">
-        <v>38.341991878003299</v>
+        <v>38.341991790639781</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.307714624248202</v>
+      </c>
+      <c r="C3">
+        <v>12.98801960682068</v>
+      </c>
+      <c r="D3">
+        <v>27.879233967006485</v>
+      </c>
+      <c r="E3">
+        <v>35.902551322461854</v>
+      </c>
+      <c r="F3">
+        <v>13.469861654730108</v>
+      </c>
+      <c r="G3">
+        <v>22.820270646871922</v>
+      </c>
+      <c r="H3">
+        <v>-4.8444689119820286</v>
+      </c>
+      <c r="I3">
+        <v>5.3611659982215301</v>
+      </c>
+      <c r="J3">
+        <v>26.834442279424859</v>
+      </c>
+      <c r="K3">
+        <v>39.983741969845504</v>
+      </c>
+      <c r="L3">
+        <v>29.9773659049361</v>
+      </c>
+      <c r="M3">
+        <v>-4.5865540726101512</v>
+      </c>
+      <c r="N3">
         <v>14.471734435433772</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-10.616310651571711</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>24.320246507597325</v>
+      </c>
+      <c r="Q3">
+        <v>10.508873493099712</v>
+      </c>
+      <c r="R3">
+        <v>6.8726977810813397</v>
+      </c>
+      <c r="S3">
+        <v>25.32775477686662</v>
+      </c>
+      <c r="T3">
+        <v>32.317783039668555</v>
+      </c>
+      <c r="U3">
+        <v>12.809551653454964</v>
+      </c>
+      <c r="V3">
+        <v>20.933072568167372</v>
+      </c>
+      <c r="W3">
+        <v>2.7866848318746524</v>
+      </c>
+      <c r="X3">
+        <v>-4.9732368020940303</v>
+      </c>
+      <c r="Y3">
+        <v>34.302238124530952</v>
+      </c>
+      <c r="Z3">
+        <v>18.248289637957406</v>
+      </c>
+      <c r="AA3">
+        <v>34.776823592264101</v>
+      </c>
+      <c r="AB3">
+        <v>29.818664332171572</v>
+      </c>
+      <c r="AC3">
+        <v>40.220515429546651</v>
+      </c>
+      <c r="AD3">
+        <v>40.310939876444174</v>
+      </c>
+      <c r="AE3">
+        <v>31.383196223527332</v>
+      </c>
+      <c r="AF3">
+        <v>22.640262087476518</v>
+      </c>
+      <c r="AG3">
+        <v>17.636615184797623</v>
+      </c>
+      <c r="AH3">
+        <v>9.5678701073997416</v>
+      </c>
+      <c r="AI3">
+        <v>31.729918770669858</v>
+      </c>
+      <c r="AJ3">
+        <v>49.342442178073462</v>
+      </c>
+      <c r="AK3">
+        <v>28.457235256273982</v>
+      </c>
+      <c r="AL3">
+        <v>17.611569127307611</v>
+      </c>
+      <c r="AM3">
         <v>25.673148807290115</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-5.1521007428528565</v>
       </c>
-      <c r="F3">
-        <v>13.469861712229299</v>
-      </c>
-      <c r="G3">
-        <v>22.820270681563436</v>
-      </c>
-      <c r="H3">
-        <v>-4.8444689331867883</v>
-      </c>
-      <c r="I3">
-        <v>5.3611660229769589</v>
-      </c>
-      <c r="J3">
-        <v>26.834442373471955</v>
-      </c>
-      <c r="K3">
-        <v>39.983741980150683</v>
-      </c>
-      <c r="L3">
-        <v>29.977365967731849</v>
-      </c>
-      <c r="M3">
-        <v>-4.5859415008244078</v>
-      </c>
-      <c r="N3">
-        <v>14.471734453334484</v>
-      </c>
-      <c r="O3">
-        <v>-10.616310647529183</v>
-      </c>
-      <c r="P3">
-        <v>24.320246605864064</v>
-      </c>
-      <c r="Q3">
-        <v>10.508873560329112</v>
-      </c>
-      <c r="R3">
-        <v>6.872697997055659</v>
-      </c>
-      <c r="S3">
-        <v>25.327754823693443</v>
-      </c>
-      <c r="T3">
-        <v>32.317783089004799</v>
-      </c>
-      <c r="U3">
-        <v>12.809551700379149</v>
-      </c>
-      <c r="V3">
-        <v>20.933072644743874</v>
-      </c>
-      <c r="W3">
-        <v>2.7866848591842523</v>
-      </c>
-      <c r="X3">
-        <v>-4.9732367760333558</v>
-      </c>
-      <c r="Y3">
-        <v>34.302238201315049</v>
-      </c>
-      <c r="Z3">
-        <v>18.248289670901755</v>
-      </c>
-      <c r="AA3">
-        <v>34.776823533635593</v>
-      </c>
-      <c r="AB3">
-        <v>29.818664408503736</v>
-      </c>
-      <c r="AC3">
-        <v>40.220515640392136</v>
-      </c>
-      <c r="AD3">
-        <v>40.310940107851344</v>
-      </c>
-      <c r="AE3">
-        <v>31.383196444240696</v>
-      </c>
-      <c r="AF3">
-        <v>22.640262199570611</v>
-      </c>
-      <c r="AG3">
-        <v>17.636615274068859</v>
-      </c>
-      <c r="AH3">
-        <v>9.5678701652811124</v>
-      </c>
-      <c r="AI3">
-        <v>31.729919123498433</v>
-      </c>
-      <c r="AJ3">
-        <v>49.342442329708796</v>
-      </c>
-      <c r="AK3">
-        <v>28.457235553278409</v>
-      </c>
-      <c r="AL3">
-        <v>17.611569222313378</v>
-      </c>
-      <c r="AM3">
-        <v>25.673148946180781</v>
-      </c>
-      <c r="AN3">
-        <v>-5.1521007115543602</v>
-      </c>
       <c r="AO3">
-        <v>41.937048814294521</v>
+        <v>41.937048493350417</v>
       </c>
       <c r="AP3">
-        <v>7.4195272212960903</v>
+        <v>7.4195271562628466</v>
       </c>
       <c r="AQ3">
-        <v>22.659194571095092</v>
+        <v>22.659194513281399</v>
       </c>
       <c r="AR3">
-        <v>42.201531084766003</v>
+        <v>42.20153123478218</v>
       </c>
       <c r="AS3">
-        <v>34.30179375796498</v>
+        <v>34.301793816628148</v>
       </c>
       <c r="AT3">
-        <v>21.785268849754225</v>
+        <v>21.785268725950058</v>
       </c>
       <c r="AU3">
-        <v>18.859359384186448</v>
+        <v>18.859358994742866</v>
       </c>
       <c r="AV3">
-        <v>17.478615008932579</v>
+        <v>17.478614827674658</v>
       </c>
       <c r="AW3">
-        <v>12.597818226910901</v>
+        <v>12.597816698778578</v>
       </c>
       <c r="AX3">
-        <v>21.815187273516997</v>
+        <v>21.815186930326444</v>
       </c>
       <c r="AY3">
-        <v>42.551994663568934</v>
+        <v>42.551994581200226</v>
       </c>
     </row>
   </sheetData>
